--- a/6/1/1/3/2/Suscripciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/2/Suscripciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
   <si>
     <t>Serie</t>
   </si>
@@ -569,6 +569,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -926,7 +929,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K175"/>
+  <dimension ref="A1:K176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6975,7 +6978,7 @@
         <v>16483</v>
       </c>
       <c r="H173">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="I173">
         <v>1353</v>
@@ -6984,7 +6987,7 @@
         <v>1038</v>
       </c>
       <c r="K173">
-        <v>1224</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="174" spans="1:11">
@@ -7007,7 +7010,7 @@
         <v>8239</v>
       </c>
       <c r="G174">
-        <v>19273</v>
+        <v>19275</v>
       </c>
       <c r="H174">
         <v>1958</v>
@@ -7019,7 +7022,7 @@
         <v>1017</v>
       </c>
       <c r="K174">
-        <v>1631</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="175" spans="1:11">
@@ -7039,7 +7042,7 @@
         <v>8339</v>
       </c>
       <c r="F175">
-        <v>13358</v>
+        <v>13608</v>
       </c>
       <c r="G175">
         <v>13711</v>
@@ -7051,10 +7054,45 @@
         <v>1517</v>
       </c>
       <c r="J175">
-        <v>1225</v>
+        <v>975</v>
       </c>
       <c r="K175">
         <v>1927</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
+      <c r="A176" t="s">
+        <v>185</v>
+      </c>
+      <c r="B176">
+        <v>42989</v>
+      </c>
+      <c r="C176">
+        <v>22130</v>
+      </c>
+      <c r="D176">
+        <v>20859</v>
+      </c>
+      <c r="E176">
+        <v>9476</v>
+      </c>
+      <c r="F176">
+        <v>8707</v>
+      </c>
+      <c r="G176">
+        <v>17198</v>
+      </c>
+      <c r="H176">
+        <v>2566</v>
+      </c>
+      <c r="I176">
+        <v>2200</v>
+      </c>
+      <c r="J176">
+        <v>1202</v>
+      </c>
+      <c r="K176">
+        <v>1641</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/3/2/Suscripciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/2/Suscripciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t>Serie</t>
   </si>
@@ -572,6 +572,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -929,7 +932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K176"/>
+  <dimension ref="A1:K177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7030,13 +7033,13 @@
         <v>184</v>
       </c>
       <c r="B175">
-        <v>42173</v>
+        <v>42223</v>
       </c>
       <c r="C175">
         <v>20074</v>
       </c>
       <c r="D175">
-        <v>22099</v>
+        <v>22149</v>
       </c>
       <c r="E175">
         <v>8339</v>
@@ -7045,10 +7048,10 @@
         <v>13608</v>
       </c>
       <c r="G175">
-        <v>13711</v>
+        <v>13811</v>
       </c>
       <c r="H175">
-        <v>2096</v>
+        <v>2146</v>
       </c>
       <c r="I175">
         <v>1517</v>
@@ -7057,7 +7060,7 @@
         <v>975</v>
       </c>
       <c r="K175">
-        <v>1927</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="176" spans="1:11">
@@ -7077,7 +7080,7 @@
         <v>9476</v>
       </c>
       <c r="F176">
-        <v>8707</v>
+        <v>8737</v>
       </c>
       <c r="G176">
         <v>17198</v>
@@ -7089,10 +7092,45 @@
         <v>2200</v>
       </c>
       <c r="J176">
-        <v>1202</v>
+        <v>1172</v>
       </c>
       <c r="K176">
         <v>1641</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
+      <c r="A177" t="s">
+        <v>186</v>
+      </c>
+      <c r="B177">
+        <v>43833</v>
+      </c>
+      <c r="C177">
+        <v>21631</v>
+      </c>
+      <c r="D177">
+        <v>22203</v>
+      </c>
+      <c r="E177">
+        <v>8381</v>
+      </c>
+      <c r="F177">
+        <v>11528</v>
+      </c>
+      <c r="G177">
+        <v>16033</v>
+      </c>
+      <c r="H177">
+        <v>3135</v>
+      </c>
+      <c r="I177">
+        <v>2695</v>
+      </c>
+      <c r="J177">
+        <v>976</v>
+      </c>
+      <c r="K177">
+        <v>1085</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/3/2/Suscripciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/2/Suscripciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
     <t>Serie</t>
   </si>
@@ -575,6 +575,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -932,7 +935,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K177"/>
+  <dimension ref="A1:K178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7086,7 +7089,7 @@
         <v>17198</v>
       </c>
       <c r="H176">
-        <v>2566</v>
+        <v>2591</v>
       </c>
       <c r="I176">
         <v>2200</v>
@@ -7095,7 +7098,7 @@
         <v>1172</v>
       </c>
       <c r="K176">
-        <v>1641</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="177" spans="1:11">
@@ -7115,7 +7118,7 @@
         <v>8381</v>
       </c>
       <c r="F177">
-        <v>11528</v>
+        <v>11628</v>
       </c>
       <c r="G177">
         <v>16033</v>
@@ -7127,10 +7130,45 @@
         <v>2695</v>
       </c>
       <c r="J177">
-        <v>976</v>
+        <v>876</v>
       </c>
       <c r="K177">
         <v>1085</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178" t="s">
+        <v>187</v>
+      </c>
+      <c r="B178">
+        <v>49587</v>
+      </c>
+      <c r="C178">
+        <v>24943</v>
+      </c>
+      <c r="D178">
+        <v>24644</v>
+      </c>
+      <c r="E178">
+        <v>8818</v>
+      </c>
+      <c r="F178">
+        <v>13100</v>
+      </c>
+      <c r="G178">
+        <v>16483</v>
+      </c>
+      <c r="H178">
+        <v>3367</v>
+      </c>
+      <c r="I178">
+        <v>2971</v>
+      </c>
+      <c r="J178">
+        <v>2924</v>
+      </c>
+      <c r="K178">
+        <v>1925</v>
       </c>
     </row>
   </sheetData>
